--- a/relatorio-criado-municipio/japeri/Japeri.xlsx
+++ b/relatorio-criado-municipio/japeri/Japeri.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
